--- a/Python/database/sidis/expdata/2001.xlsx
+++ b/Python/database/sidis/expdata/2001.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="12760" windowWidth="19140" windowHeight="11140"/>
+    <workbookView xWindow="13640" yWindow="8840" windowWidth="19140" windowHeight="11140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>obs</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>dependence</t>
   </si>
 </sst>
 </file>
@@ -453,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="N2" sqref="N2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -501,8 +504,11 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.7</v>
       </c>
@@ -543,8 +549,11 @@
       <c r="M2" t="s">
         <v>9</v>
       </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.7</v>
       </c>
@@ -585,8 +594,11 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.7</v>
       </c>
@@ -627,8 +639,11 @@
       <c r="M4" t="s">
         <v>9</v>
       </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.7</v>
       </c>
@@ -669,8 +684,11 @@
       <c r="M5" t="s">
         <v>9</v>
       </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5.7</v>
       </c>
@@ -711,8 +729,11 @@
       <c r="M6" t="s">
         <v>9</v>
       </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.7</v>
       </c>
@@ -753,8 +774,11 @@
       <c r="M7" t="s">
         <v>9</v>
       </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5.7</v>
       </c>
@@ -795,8 +819,11 @@
       <c r="M8" t="s">
         <v>9</v>
       </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.7</v>
       </c>
@@ -836,6 +863,9 @@
       </c>
       <c r="M9" t="s">
         <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Python/database/sidis/expdata/2001.xlsx
+++ b/Python/database/sidis/expdata/2001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -147,13 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +465,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,7 +492,7 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
